--- a/www/terminologies/ValueSet-jdv-resultat-depistage-corps-cetoniques-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-resultat-depistage-corps-cetoniques-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250606103857</t>
+    <t>20250624152059</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-06T10:38:57+01:00</t>
+    <t>2025-06-24T15:20:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,7 +102,7 @@
     <t>260385009</t>
   </si>
   <si>
-    <t>négatif</t>
+    <t>négatif(-ive)</t>
   </si>
   <si>
     <t>441614007</t>

--- a/www/terminologies/ValueSet-jdv-resultat-depistage-corps-cetoniques-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-resultat-depistage-corps-cetoniques-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250624152059</t>
+    <t>20251028115831</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T15:20:59+01:00</t>
+    <t>2025-10-28T11:58:31+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/terminologies/ValueSet-jdv-resultat-depistage-corps-cetoniques-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-resultat-depistage-corps-cetoniques-cisis.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20251028115831</t>
+    <t>20251216141838</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,7 +66,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:58:31+01:00</t>
+    <t>2025-12-16T14:18:38+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
